--- a/data_year/zb/科技/国内外三种专利申请受理量.xlsx
+++ b/data_year/zb/科技/国内外三种专利申请受理量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,1913 +578,1135 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170682</v>
+        <v>1222286</v>
       </c>
       <c r="C2" t="n">
-        <v>8316</v>
+        <v>154581</v>
       </c>
       <c r="D2" t="n">
-        <v>22634</v>
+        <v>173338</v>
       </c>
       <c r="E2" t="n">
-        <v>14912</v>
+        <v>212081</v>
       </c>
       <c r="F2" t="n">
-        <v>51747</v>
+        <v>391177</v>
       </c>
       <c r="G2" t="n">
-        <v>25346</v>
+        <v>293066</v>
       </c>
       <c r="H2" t="n">
-        <v>46532</v>
+        <v>409124</v>
       </c>
       <c r="I2" t="n">
-        <v>68461</v>
+        <v>407238</v>
       </c>
       <c r="J2" t="n">
-        <v>26401</v>
+        <v>98111</v>
       </c>
       <c r="K2" t="n">
-        <v>3588</v>
+        <v>12149</v>
       </c>
       <c r="L2" t="n">
-        <v>354</v>
+        <v>2598</v>
       </c>
       <c r="M2" t="n">
-        <v>50120</v>
+        <v>421273</v>
       </c>
       <c r="N2" t="n">
-        <v>1942</v>
+        <v>48294</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>12815</v>
       </c>
       <c r="P2" t="n">
-        <v>965</v>
+        <v>18223</v>
       </c>
       <c r="Q2" t="n">
-        <v>68815</v>
+        <v>409836</v>
       </c>
       <c r="R2" t="n">
-        <v>123</v>
+        <v>2625</v>
       </c>
       <c r="S2" t="n">
-        <v>45</v>
+        <v>4950</v>
       </c>
       <c r="T2" t="n">
-        <v>299</v>
+        <v>4701</v>
       </c>
       <c r="U2" t="n">
-        <v>2228</v>
+        <v>18254</v>
       </c>
       <c r="V2" t="n">
-        <v>278</v>
+        <v>1234</v>
       </c>
       <c r="W2" t="n">
-        <v>1616</v>
+        <v>7474</v>
       </c>
       <c r="X2" t="n">
-        <v>25334</v>
+        <v>95517</v>
       </c>
       <c r="Y2" t="n">
-        <v>3432</v>
+        <v>11535</v>
       </c>
       <c r="Z2" t="n">
-        <v>259</v>
+        <v>2248</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067</v>
+        <v>2594</v>
       </c>
       <c r="AB2" t="n">
-        <v>156</v>
+        <v>614</v>
       </c>
       <c r="AC2" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203573</v>
+        <v>1633347</v>
       </c>
       <c r="C3" t="n">
-        <v>9371</v>
+        <v>231551</v>
       </c>
       <c r="D3" t="n">
-        <v>23260</v>
+        <v>231586</v>
       </c>
       <c r="E3" t="n">
-        <v>18671</v>
+        <v>336298</v>
       </c>
       <c r="F3" t="n">
-        <v>63204</v>
+        <v>526412</v>
       </c>
       <c r="G3" t="n">
-        <v>30038</v>
+        <v>415829</v>
       </c>
       <c r="H3" t="n">
-        <v>56460</v>
+        <v>507538</v>
       </c>
       <c r="I3" t="n">
-        <v>79275</v>
+        <v>581303</v>
       </c>
       <c r="J3" t="n">
-        <v>33166</v>
+        <v>110583</v>
       </c>
       <c r="K3" t="n">
-        <v>4187</v>
+        <v>13930</v>
       </c>
       <c r="L3" t="n">
-        <v>447</v>
+        <v>4164</v>
       </c>
       <c r="M3" t="n">
-        <v>60647</v>
+        <v>521468</v>
       </c>
       <c r="N3" t="n">
-        <v>2636</v>
+        <v>63028</v>
       </c>
       <c r="O3" t="n">
-        <v>37</v>
+        <v>14467</v>
       </c>
       <c r="P3" t="n">
-        <v>1137</v>
+        <v>32641</v>
       </c>
       <c r="Q3" t="n">
-        <v>79722</v>
+        <v>585467</v>
       </c>
       <c r="R3" t="n">
-        <v>149</v>
+        <v>4423</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>2300</v>
       </c>
       <c r="T3" t="n">
-        <v>452</v>
+        <v>8140</v>
       </c>
       <c r="U3" t="n">
-        <v>2659</v>
+        <v>25222</v>
       </c>
       <c r="V3" t="n">
-        <v>159</v>
+        <v>2176</v>
       </c>
       <c r="W3" t="n">
-        <v>1542</v>
+        <v>10512</v>
       </c>
       <c r="X3" t="n">
-        <v>31820</v>
+        <v>107899</v>
       </c>
       <c r="Y3" t="n">
-        <v>4003</v>
+        <v>13315</v>
       </c>
       <c r="Z3" t="n">
-        <v>294</v>
+        <v>3772</v>
       </c>
       <c r="AA3" t="n">
-        <v>1346</v>
+        <v>2684</v>
       </c>
       <c r="AB3" t="n">
-        <v>184</v>
+        <v>615</v>
       </c>
       <c r="AC3" t="n">
-        <v>153</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252631</v>
+        <v>2050649</v>
       </c>
       <c r="C4" t="n">
-        <v>14657</v>
+        <v>316414</v>
       </c>
       <c r="D4" t="n">
-        <v>30505</v>
+        <v>330804</v>
       </c>
       <c r="E4" t="n">
-        <v>23800</v>
+        <v>450002</v>
       </c>
       <c r="F4" t="n">
-        <v>80232</v>
+        <v>652777</v>
       </c>
       <c r="G4" t="n">
-        <v>39806</v>
+        <v>535313</v>
       </c>
       <c r="H4" t="n">
-        <v>73572</v>
+        <v>642401</v>
       </c>
       <c r="I4" t="n">
-        <v>92166</v>
+        <v>734437</v>
       </c>
       <c r="J4" t="n">
-        <v>40426</v>
+        <v>117464</v>
       </c>
       <c r="K4" t="n">
-        <v>5688</v>
+        <v>15181</v>
       </c>
       <c r="L4" t="n">
-        <v>973</v>
+        <v>5853</v>
       </c>
       <c r="M4" t="n">
-        <v>79260</v>
+        <v>657582</v>
       </c>
       <c r="N4" t="n">
-        <v>4282</v>
+        <v>75688</v>
       </c>
       <c r="O4" t="n">
-        <v>41</v>
+        <v>16961</v>
       </c>
       <c r="P4" t="n">
-        <v>1658</v>
+        <v>39999</v>
       </c>
       <c r="Q4" t="n">
-        <v>93139</v>
+        <v>740290</v>
       </c>
       <c r="R4" t="n">
-        <v>300</v>
+        <v>6807</v>
       </c>
       <c r="S4" t="n">
-        <v>114</v>
+        <v>2106</v>
       </c>
       <c r="T4" t="n">
-        <v>512</v>
+        <v>9416</v>
       </c>
       <c r="U4" t="n">
-        <v>3429</v>
+        <v>29518</v>
       </c>
       <c r="V4" t="n">
-        <v>302</v>
+        <v>2815</v>
       </c>
       <c r="W4" t="n">
-        <v>1642</v>
+        <v>12786</v>
       </c>
       <c r="X4" t="n">
-        <v>38764</v>
+        <v>114700</v>
       </c>
       <c r="Y4" t="n">
-        <v>5458</v>
+        <v>14456</v>
       </c>
       <c r="Z4" t="n">
-        <v>640</v>
+        <v>5482</v>
       </c>
       <c r="AA4" t="n">
-        <v>1662</v>
+        <v>2764</v>
       </c>
       <c r="AB4" t="n">
-        <v>230</v>
+        <v>725</v>
       </c>
       <c r="AC4" t="n">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308487</v>
+        <v>2377061</v>
       </c>
       <c r="C5" t="n">
-        <v>21858</v>
+        <v>426544</v>
       </c>
       <c r="D5" t="n">
-        <v>33261</v>
+        <v>332458</v>
       </c>
       <c r="E5" t="n">
-        <v>28998</v>
+        <v>551056</v>
       </c>
       <c r="F5" t="n">
-        <v>105318</v>
+        <v>825136</v>
       </c>
       <c r="G5" t="n">
-        <v>56769</v>
+        <v>704936</v>
       </c>
       <c r="H5" t="n">
-        <v>86627</v>
+        <v>644398</v>
       </c>
       <c r="I5" t="n">
-        <v>107842</v>
+        <v>885226</v>
       </c>
       <c r="J5" t="n">
-        <v>48549</v>
+        <v>120200</v>
       </c>
       <c r="K5" t="n">
-        <v>7427</v>
+        <v>15165</v>
       </c>
       <c r="L5" t="n">
-        <v>1273</v>
+        <v>7136</v>
       </c>
       <c r="M5" t="n">
-        <v>94054</v>
+        <v>659563</v>
       </c>
       <c r="N5" t="n">
-        <v>7704</v>
+        <v>98509</v>
       </c>
       <c r="O5" t="n">
-        <v>173</v>
+        <v>13150</v>
       </c>
       <c r="P5" t="n">
-        <v>2375</v>
+        <v>55997</v>
       </c>
       <c r="Q5" t="n">
-        <v>109115</v>
+        <v>892362</v>
       </c>
       <c r="R5" t="n">
-        <v>458</v>
+        <v>9438</v>
       </c>
       <c r="S5" t="n">
-        <v>64</v>
+        <v>2853</v>
       </c>
       <c r="T5" t="n">
-        <v>567</v>
+        <v>12033</v>
       </c>
       <c r="U5" t="n">
-        <v>4711</v>
+        <v>36582</v>
       </c>
       <c r="V5" t="n">
-        <v>183</v>
+        <v>2090</v>
       </c>
       <c r="W5" t="n">
-        <v>2104</v>
+        <v>14360</v>
       </c>
       <c r="X5" t="n">
-        <v>46764</v>
+        <v>117654</v>
       </c>
       <c r="Y5" t="n">
-        <v>7192</v>
+        <v>14289</v>
       </c>
       <c r="Z5" t="n">
-        <v>1076</v>
+        <v>6666</v>
       </c>
       <c r="AA5" t="n">
-        <v>1785</v>
+        <v>2546</v>
       </c>
       <c r="AB5" t="n">
-        <v>235</v>
+        <v>876</v>
       </c>
       <c r="AC5" t="n">
-        <v>197</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353807</v>
+        <v>2361243</v>
       </c>
       <c r="C6" t="n">
-        <v>27029</v>
+        <v>484747</v>
       </c>
       <c r="D6" t="n">
-        <v>33186</v>
+        <v>255962</v>
       </c>
       <c r="E6" t="n">
-        <v>29933</v>
+        <v>565757</v>
       </c>
       <c r="F6" t="n">
-        <v>130133</v>
+        <v>928177</v>
       </c>
       <c r="G6" t="n">
-        <v>65786</v>
+        <v>801135</v>
       </c>
       <c r="H6" t="n">
-        <v>101579</v>
+        <v>548428</v>
       </c>
       <c r="I6" t="n">
-        <v>111578</v>
+        <v>861053</v>
       </c>
       <c r="J6" t="n">
-        <v>64347</v>
+        <v>127042</v>
       </c>
       <c r="K6" t="n">
-        <v>9270</v>
+        <v>16127</v>
       </c>
       <c r="L6" t="n">
-        <v>1247</v>
+        <v>7458</v>
       </c>
       <c r="M6" t="n">
-        <v>110849</v>
+        <v>564555</v>
       </c>
       <c r="N6" t="n">
-        <v>9683</v>
+        <v>111993</v>
       </c>
       <c r="O6" t="n">
-        <v>470</v>
+        <v>11607</v>
       </c>
       <c r="P6" t="n">
-        <v>2844</v>
+        <v>60369</v>
       </c>
       <c r="Q6" t="n">
-        <v>112825</v>
+        <v>868511</v>
       </c>
       <c r="R6" t="n">
-        <v>495</v>
+        <v>11658</v>
       </c>
       <c r="S6" t="n">
-        <v>371</v>
+        <v>2366</v>
       </c>
       <c r="T6" t="n">
-        <v>560</v>
+        <v>12734</v>
       </c>
       <c r="U6" t="n">
-        <v>4543</v>
+        <v>39625</v>
       </c>
       <c r="V6" t="n">
-        <v>285</v>
+        <v>1192</v>
       </c>
       <c r="W6" t="n">
-        <v>1881</v>
+        <v>15044</v>
       </c>
       <c r="X6" t="n">
-        <v>62113</v>
+        <v>124362</v>
       </c>
       <c r="Y6" t="n">
-        <v>8904</v>
+        <v>15183</v>
       </c>
       <c r="Z6" t="n">
-        <v>1020</v>
+        <v>6985</v>
       </c>
       <c r="AA6" t="n">
-        <v>2234</v>
+        <v>2680</v>
       </c>
       <c r="AB6" t="n">
-        <v>366</v>
+        <v>944</v>
       </c>
       <c r="AC6" t="n">
-        <v>227</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>476264</v>
+        <v>2798500</v>
       </c>
       <c r="C7" t="n">
-        <v>40196</v>
+        <v>582512</v>
       </c>
       <c r="D7" t="n">
-        <v>47552</v>
+        <v>252374</v>
       </c>
       <c r="E7" t="n">
-        <v>39649</v>
+        <v>730865</v>
       </c>
       <c r="F7" t="n">
-        <v>173327</v>
+        <v>1101864</v>
       </c>
       <c r="G7" t="n">
-        <v>93485</v>
+        <v>968251</v>
       </c>
       <c r="H7" t="n">
-        <v>151587</v>
+        <v>551481</v>
       </c>
       <c r="I7" t="n">
-        <v>138085</v>
+        <v>1119714</v>
       </c>
       <c r="J7" t="n">
-        <v>79842</v>
+        <v>133613</v>
       </c>
       <c r="K7" t="n">
-        <v>11784</v>
+        <v>17578</v>
       </c>
       <c r="L7" t="n">
-        <v>1481</v>
+        <v>7863</v>
       </c>
       <c r="M7" t="n">
-        <v>163371</v>
+        <v>569059</v>
       </c>
       <c r="N7" t="n">
-        <v>14643</v>
+        <v>133645</v>
       </c>
       <c r="O7" t="n">
-        <v>1435</v>
+        <v>12440</v>
       </c>
       <c r="P7" t="n">
-        <v>3843</v>
+        <v>89077</v>
       </c>
       <c r="Q7" t="n">
-        <v>139566</v>
+        <v>1127577</v>
       </c>
       <c r="R7" t="n">
-        <v>705</v>
+        <v>15415</v>
       </c>
       <c r="S7" t="n">
-        <v>387</v>
+        <v>2299</v>
       </c>
       <c r="T7" t="n">
-        <v>726</v>
+        <v>19971</v>
       </c>
       <c r="U7" t="n">
-        <v>6726</v>
+        <v>44545</v>
       </c>
       <c r="V7" t="n">
-        <v>359</v>
+        <v>1101</v>
       </c>
       <c r="W7" t="n">
-        <v>2661</v>
+        <v>18830</v>
       </c>
       <c r="X7" t="n">
-        <v>77575</v>
+        <v>130838</v>
       </c>
       <c r="Y7" t="n">
-        <v>11230</v>
+        <v>16637</v>
       </c>
       <c r="Z7" t="n">
-        <v>1171</v>
+        <v>7323</v>
       </c>
       <c r="AA7" t="n">
-        <v>2267</v>
+        <v>2775</v>
       </c>
       <c r="AB7" t="n">
-        <v>554</v>
+        <v>941</v>
       </c>
       <c r="AC7" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>573178</v>
+        <v>3464824</v>
       </c>
       <c r="C8" t="n">
-        <v>56455</v>
+        <v>735533</v>
       </c>
       <c r="D8" t="n">
-        <v>60069</v>
+        <v>304160</v>
       </c>
       <c r="E8" t="n">
-        <v>50350</v>
+        <v>964644</v>
       </c>
       <c r="F8" t="n">
-        <v>210490</v>
+        <v>1338503</v>
       </c>
       <c r="G8" t="n">
-        <v>122318</v>
+        <v>1204981</v>
       </c>
       <c r="H8" t="n">
-        <v>188027</v>
+        <v>631949</v>
       </c>
       <c r="I8" t="n">
-        <v>159997</v>
+        <v>1468295</v>
       </c>
       <c r="J8" t="n">
-        <v>88172</v>
+        <v>133522</v>
       </c>
       <c r="K8" t="n">
-        <v>13295</v>
+        <v>18395</v>
       </c>
       <c r="L8" t="n">
-        <v>1369</v>
+        <v>7682</v>
       </c>
       <c r="M8" t="n">
-        <v>201322</v>
+        <v>650344</v>
       </c>
       <c r="N8" t="n">
-        <v>17312</v>
+        <v>173049</v>
       </c>
       <c r="O8" t="n">
-        <v>1262</v>
+        <v>17310</v>
       </c>
       <c r="P8" t="n">
-        <v>4376</v>
+        <v>124155</v>
       </c>
       <c r="Q8" t="n">
-        <v>161366</v>
+        <v>1475977</v>
       </c>
       <c r="R8" t="n">
-        <v>873</v>
+        <v>19313</v>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>2522</v>
       </c>
       <c r="T8" t="n">
-        <v>1352</v>
+        <v>25663</v>
       </c>
       <c r="U8" t="n">
-        <v>6845</v>
+        <v>55076</v>
       </c>
       <c r="V8" t="n">
-        <v>342</v>
+        <v>1663</v>
       </c>
       <c r="W8" t="n">
-        <v>2691</v>
+        <v>21535</v>
       </c>
       <c r="X8" t="n">
-        <v>85834</v>
+        <v>130699</v>
       </c>
       <c r="Y8" t="n">
-        <v>12697</v>
+        <v>17248</v>
       </c>
       <c r="Z8" t="n">
-        <v>1077</v>
+        <v>7013</v>
       </c>
       <c r="AA8" t="n">
-        <v>2338</v>
+        <v>2823</v>
       </c>
       <c r="AB8" t="n">
-        <v>598</v>
+        <v>1147</v>
       </c>
       <c r="AC8" t="n">
-        <v>292</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693917</v>
+        <v>3697845</v>
       </c>
       <c r="C9" t="n">
-        <v>73893</v>
+        <v>788194</v>
       </c>
       <c r="D9" t="n">
-        <v>86208</v>
+        <v>315201</v>
       </c>
       <c r="E9" t="n">
-        <v>63371</v>
+        <v>1158372</v>
       </c>
       <c r="F9" t="n">
-        <v>245161</v>
+        <v>1381594</v>
       </c>
       <c r="G9" t="n">
-        <v>153060</v>
+        <v>1245709</v>
       </c>
       <c r="H9" t="n">
-        <v>253439</v>
+        <v>610817</v>
       </c>
       <c r="I9" t="n">
-        <v>179999</v>
+        <v>1679807</v>
       </c>
       <c r="J9" t="n">
-        <v>92101</v>
+        <v>135885</v>
       </c>
       <c r="K9" t="n">
-        <v>13993</v>
+        <v>17841</v>
       </c>
       <c r="L9" t="n">
-        <v>1325</v>
+        <v>7786</v>
       </c>
       <c r="M9" t="n">
-        <v>267432</v>
+        <v>628658</v>
       </c>
       <c r="N9" t="n">
-        <v>23001</v>
+        <v>179879</v>
       </c>
       <c r="O9" t="n">
-        <v>3302</v>
+        <v>20825</v>
       </c>
       <c r="P9" t="n">
-        <v>6377</v>
+        <v>135481</v>
       </c>
       <c r="Q9" t="n">
-        <v>181324</v>
+        <v>1687593</v>
       </c>
       <c r="R9" t="n">
-        <v>1022</v>
+        <v>22389</v>
       </c>
       <c r="S9" t="n">
-        <v>3439</v>
+        <v>2660</v>
       </c>
       <c r="T9" t="n">
-        <v>1369</v>
+        <v>32648</v>
       </c>
       <c r="U9" t="n">
-        <v>9748</v>
+        <v>53308</v>
       </c>
       <c r="V9" t="n">
-        <v>773</v>
+        <v>1183</v>
       </c>
       <c r="W9" t="n">
-        <v>3598</v>
+        <v>22089</v>
       </c>
       <c r="X9" t="n">
-        <v>89632</v>
+        <v>132883</v>
       </c>
       <c r="Y9" t="n">
-        <v>13519</v>
+        <v>16899</v>
       </c>
       <c r="Z9" t="n">
-        <v>1002</v>
+        <v>7198</v>
       </c>
       <c r="AA9" t="n">
-        <v>2469</v>
+        <v>3002</v>
       </c>
       <c r="AB9" t="n">
-        <v>474</v>
+        <v>942</v>
       </c>
       <c r="AC9" t="n">
-        <v>323</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>828328</v>
+        <v>4323112</v>
       </c>
       <c r="C10" t="n">
-        <v>95619</v>
+        <v>896648</v>
       </c>
       <c r="D10" t="n">
-        <v>108517</v>
+        <v>372217</v>
       </c>
       <c r="E10" t="n">
-        <v>91374</v>
+        <v>1476090</v>
       </c>
       <c r="F10" t="n">
-        <v>289838</v>
+        <v>1542002</v>
       </c>
       <c r="G10" t="n">
-        <v>194579</v>
+        <v>1393815</v>
       </c>
       <c r="H10" t="n">
-        <v>298620</v>
+        <v>689097</v>
       </c>
       <c r="I10" t="n">
-        <v>223945</v>
+        <v>2063860</v>
       </c>
       <c r="J10" t="n">
-        <v>95259</v>
+        <v>148187</v>
       </c>
       <c r="K10" t="n">
-        <v>14284</v>
+        <v>19702</v>
       </c>
       <c r="L10" t="n">
-        <v>1641</v>
+        <v>8451</v>
       </c>
       <c r="M10" t="n">
-        <v>312904</v>
+        <v>708799</v>
       </c>
       <c r="N10" t="n">
-        <v>30808</v>
+        <v>226628</v>
       </c>
       <c r="O10" t="n">
-        <v>4975</v>
+        <v>27507</v>
       </c>
       <c r="P10" t="n">
-        <v>9362</v>
+        <v>153193</v>
       </c>
       <c r="Q10" t="n">
-        <v>225586</v>
+        <v>2072311</v>
       </c>
       <c r="R10" t="n">
-        <v>1590</v>
+        <v>20865</v>
       </c>
       <c r="S10" t="n">
-        <v>1880</v>
+        <v>2795</v>
       </c>
       <c r="T10" t="n">
-        <v>1649</v>
+        <v>46056</v>
       </c>
       <c r="U10" t="n">
-        <v>12435</v>
+        <v>57959</v>
       </c>
       <c r="V10" t="n">
-        <v>1453</v>
+        <v>1390</v>
       </c>
       <c r="W10" t="n">
-        <v>4724</v>
+        <v>23676</v>
       </c>
       <c r="X10" t="n">
-        <v>92827</v>
+        <v>145359</v>
       </c>
       <c r="Y10" t="n">
-        <v>13776</v>
+        <v>18682</v>
       </c>
       <c r="Z10" t="n">
-        <v>1331</v>
+        <v>7909</v>
       </c>
       <c r="AA10" t="n">
-        <v>2432</v>
+        <v>2828</v>
       </c>
       <c r="AB10" t="n">
-        <v>508</v>
+        <v>1020</v>
       </c>
       <c r="AC10" t="n">
-        <v>310</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>976686</v>
+        <v>4380468</v>
       </c>
       <c r="C11" t="n">
-        <v>118257</v>
+        <v>807813</v>
       </c>
       <c r="D11" t="n">
-        <v>128424</v>
+        <v>366197</v>
       </c>
       <c r="E11" t="n">
-        <v>147618</v>
+        <v>1646655</v>
       </c>
       <c r="F11" t="n">
-        <v>314573</v>
+        <v>1400661</v>
       </c>
       <c r="G11" t="n">
-        <v>229096</v>
+        <v>1243568</v>
       </c>
       <c r="H11" t="n">
-        <v>339654</v>
+        <v>691771</v>
       </c>
       <c r="I11" t="n">
-        <v>308861</v>
+        <v>2259765</v>
       </c>
       <c r="J11" t="n">
-        <v>85477</v>
+        <v>157093</v>
       </c>
       <c r="K11" t="n">
-        <v>11688</v>
+        <v>19846</v>
       </c>
       <c r="L11" t="n">
-        <v>1910</v>
+        <v>8425</v>
       </c>
       <c r="M11" t="n">
-        <v>351342</v>
+        <v>711617</v>
       </c>
       <c r="N11" t="n">
-        <v>37965</v>
+        <v>244673</v>
       </c>
       <c r="O11" t="n">
-        <v>9850</v>
+        <v>29349</v>
       </c>
       <c r="P11" t="n">
-        <v>13764</v>
+        <v>156505</v>
       </c>
       <c r="Q11" t="n">
-        <v>310771</v>
+        <v>2268190</v>
       </c>
       <c r="R11" t="n">
-        <v>1627</v>
+        <v>20543</v>
       </c>
       <c r="S11" t="n">
-        <v>2266</v>
+        <v>3159</v>
       </c>
       <c r="T11" t="n">
-        <v>2009</v>
+        <v>56671</v>
       </c>
       <c r="U11" t="n">
-        <v>14332</v>
+        <v>63043</v>
       </c>
       <c r="V11" t="n">
-        <v>917</v>
+        <v>1401</v>
       </c>
       <c r="W11" t="n">
-        <v>6022</v>
+        <v>24621</v>
       </c>
       <c r="X11" t="n">
-        <v>82647</v>
+        <v>154192</v>
       </c>
       <c r="Y11" t="n">
-        <v>10972</v>
+        <v>18756</v>
       </c>
       <c r="Z11" t="n">
-        <v>1612</v>
+        <v>7856</v>
       </c>
       <c r="AA11" t="n">
-        <v>2830</v>
+        <v>2901</v>
       </c>
       <c r="AB11" t="n">
-        <v>716</v>
+        <v>1090</v>
       </c>
       <c r="AC11" t="n">
-        <v>298</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1222286</v>
+        <v>5194154</v>
       </c>
       <c r="C12" t="n">
-        <v>154581</v>
+        <v>898925</v>
       </c>
       <c r="D12" t="n">
-        <v>173338</v>
+        <v>413128</v>
       </c>
       <c r="E12" t="n">
-        <v>212081</v>
+        <v>2133461</v>
       </c>
       <c r="F12" t="n">
-        <v>391177</v>
+        <v>1497159</v>
       </c>
       <c r="G12" t="n">
-        <v>293066</v>
+        <v>1344817</v>
       </c>
       <c r="H12" t="n">
-        <v>409124</v>
+        <v>752339</v>
       </c>
       <c r="I12" t="n">
-        <v>407238</v>
+        <v>2918874</v>
       </c>
       <c r="J12" t="n">
-        <v>98111</v>
+        <v>152342</v>
       </c>
       <c r="K12" t="n">
-        <v>12149</v>
+        <v>18023</v>
       </c>
       <c r="L12" t="n">
-        <v>2598</v>
+        <v>7759</v>
       </c>
       <c r="M12" t="n">
-        <v>421273</v>
+        <v>770362</v>
       </c>
       <c r="N12" t="n">
-        <v>48294</v>
+        <v>226090</v>
       </c>
       <c r="O12" t="n">
-        <v>12815</v>
+        <v>24144</v>
       </c>
       <c r="P12" t="n">
-        <v>18223</v>
+        <v>169208</v>
       </c>
       <c r="Q12" t="n">
-        <v>409836</v>
+        <v>2926633</v>
       </c>
       <c r="R12" t="n">
-        <v>2625</v>
+        <v>19425</v>
       </c>
       <c r="S12" t="n">
-        <v>4950</v>
+        <v>2449</v>
       </c>
       <c r="T12" t="n">
-        <v>4701</v>
+        <v>61503</v>
       </c>
       <c r="U12" t="n">
-        <v>18254</v>
+        <v>69564</v>
       </c>
       <c r="V12" t="n">
-        <v>1234</v>
+        <v>1618</v>
       </c>
       <c r="W12" t="n">
-        <v>7474</v>
+        <v>27789</v>
       </c>
       <c r="X12" t="n">
-        <v>95517</v>
+        <v>149672</v>
       </c>
       <c r="Y12" t="n">
-        <v>11535</v>
+        <v>17059</v>
       </c>
       <c r="Z12" t="n">
-        <v>2248</v>
+        <v>7280</v>
       </c>
       <c r="AA12" t="n">
-        <v>2594</v>
+        <v>2670</v>
       </c>
       <c r="AB12" t="n">
-        <v>614</v>
+        <v>964</v>
       </c>
       <c r="AC12" t="n">
-        <v>350</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1633347</v>
+        <v>5243592</v>
       </c>
       <c r="C13" t="n">
-        <v>231551</v>
+        <v>953645</v>
       </c>
       <c r="D13" t="n">
-        <v>231586</v>
+        <v>467359</v>
       </c>
       <c r="E13" t="n">
-        <v>336298</v>
+        <v>2145167</v>
       </c>
       <c r="F13" t="n">
-        <v>526412</v>
+        <v>1585663</v>
       </c>
       <c r="G13" t="n">
-        <v>415829</v>
+        <v>1427845</v>
       </c>
       <c r="H13" t="n">
-        <v>507538</v>
+        <v>787149</v>
       </c>
       <c r="I13" t="n">
-        <v>581303</v>
+        <v>2845318</v>
       </c>
       <c r="J13" t="n">
-        <v>110583</v>
+        <v>157818</v>
       </c>
       <c r="K13" t="n">
-        <v>13930</v>
+        <v>18561</v>
       </c>
       <c r="L13" t="n">
-        <v>4164</v>
+        <v>6901</v>
       </c>
       <c r="M13" t="n">
-        <v>521468</v>
+        <v>805710</v>
       </c>
       <c r="N13" t="n">
-        <v>63028</v>
+        <v>260696</v>
       </c>
       <c r="O13" t="n">
-        <v>14467</v>
+        <v>20989</v>
       </c>
       <c r="P13" t="n">
-        <v>32641</v>
+        <v>175275</v>
       </c>
       <c r="Q13" t="n">
-        <v>585467</v>
+        <v>2852219</v>
       </c>
       <c r="R13" t="n">
-        <v>4423</v>
+        <v>22365</v>
       </c>
       <c r="S13" t="n">
-        <v>2300</v>
+        <v>2229</v>
       </c>
       <c r="T13" t="n">
-        <v>8140</v>
+        <v>71639</v>
       </c>
       <c r="U13" t="n">
-        <v>25222</v>
+        <v>76826</v>
       </c>
       <c r="V13" t="n">
-        <v>2176</v>
+        <v>1458</v>
       </c>
       <c r="W13" t="n">
-        <v>10512</v>
+        <v>27286</v>
       </c>
       <c r="X13" t="n">
-        <v>107899</v>
+        <v>155300</v>
       </c>
       <c r="Y13" t="n">
-        <v>13315</v>
+        <v>17593</v>
       </c>
       <c r="Z13" t="n">
-        <v>3772</v>
+        <v>6527</v>
       </c>
       <c r="AA13" t="n">
-        <v>2684</v>
+        <v>2518</v>
       </c>
       <c r="AB13" t="n">
-        <v>615</v>
+        <v>968</v>
       </c>
       <c r="AC13" t="n">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2050649</v>
-      </c>
-      <c r="C14" t="n">
-        <v>316414</v>
-      </c>
-      <c r="D14" t="n">
-        <v>330804</v>
-      </c>
-      <c r="E14" t="n">
-        <v>450002</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>652777</v>
+        <v>1619000</v>
       </c>
       <c r="G14" t="n">
-        <v>535313</v>
-      </c>
-      <c r="H14" t="n">
-        <v>642401</v>
-      </c>
-      <c r="I14" t="n">
-        <v>734437</v>
-      </c>
+        <v>1465000</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>117464</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15181</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5853</v>
-      </c>
-      <c r="M14" t="n">
-        <v>657582</v>
-      </c>
-      <c r="N14" t="n">
-        <v>75688</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16961</v>
-      </c>
-      <c r="P14" t="n">
-        <v>39999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>740290</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6807</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2106</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9416</v>
-      </c>
-      <c r="U14" t="n">
-        <v>29518</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2815</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12786</v>
-      </c>
-      <c r="X14" t="n">
-        <v>114700</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>14456</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5482</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2764</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>725</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2377061</v>
-      </c>
-      <c r="C15" t="n">
-        <v>426544</v>
-      </c>
-      <c r="D15" t="n">
-        <v>332458</v>
-      </c>
-      <c r="E15" t="n">
-        <v>551056</v>
-      </c>
-      <c r="F15" t="n">
-        <v>825136</v>
-      </c>
-      <c r="G15" t="n">
-        <v>704936</v>
-      </c>
-      <c r="H15" t="n">
-        <v>644398</v>
-      </c>
-      <c r="I15" t="n">
-        <v>885226</v>
-      </c>
-      <c r="J15" t="n">
-        <v>120200</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15165</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7136</v>
-      </c>
-      <c r="M15" t="n">
-        <v>659563</v>
-      </c>
-      <c r="N15" t="n">
-        <v>98509</v>
-      </c>
-      <c r="O15" t="n">
-        <v>13150</v>
-      </c>
-      <c r="P15" t="n">
-        <v>55997</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>892362</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9438</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2853</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12033</v>
-      </c>
-      <c r="U15" t="n">
-        <v>36582</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2090</v>
-      </c>
-      <c r="W15" t="n">
-        <v>14360</v>
-      </c>
-      <c r="X15" t="n">
-        <v>117654</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14289</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6666</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2546</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>876</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2361243</v>
-      </c>
-      <c r="C16" t="n">
-        <v>484747</v>
-      </c>
-      <c r="D16" t="n">
-        <v>255962</v>
-      </c>
-      <c r="E16" t="n">
-        <v>565757</v>
-      </c>
-      <c r="F16" t="n">
-        <v>928177</v>
-      </c>
-      <c r="G16" t="n">
-        <v>801135</v>
-      </c>
-      <c r="H16" t="n">
-        <v>548428</v>
-      </c>
-      <c r="I16" t="n">
-        <v>861053</v>
-      </c>
-      <c r="J16" t="n">
-        <v>127042</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16127</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7458</v>
-      </c>
-      <c r="M16" t="n">
-        <v>564555</v>
-      </c>
-      <c r="N16" t="n">
-        <v>111993</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11607</v>
-      </c>
-      <c r="P16" t="n">
-        <v>60369</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>868511</v>
-      </c>
-      <c r="R16" t="n">
-        <v>11658</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2366</v>
-      </c>
-      <c r="T16" t="n">
-        <v>12734</v>
-      </c>
-      <c r="U16" t="n">
-        <v>39625</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1192</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15044</v>
-      </c>
-      <c r="X16" t="n">
-        <v>124362</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>15183</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6985</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2680</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>944</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2798500</v>
-      </c>
-      <c r="C17" t="n">
-        <v>582512</v>
-      </c>
-      <c r="D17" t="n">
-        <v>252374</v>
-      </c>
-      <c r="E17" t="n">
-        <v>730865</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1101864</v>
-      </c>
-      <c r="G17" t="n">
-        <v>968251</v>
-      </c>
-      <c r="H17" t="n">
-        <v>551481</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1119714</v>
-      </c>
-      <c r="J17" t="n">
-        <v>133613</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17578</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7863</v>
-      </c>
-      <c r="M17" t="n">
-        <v>569059</v>
-      </c>
-      <c r="N17" t="n">
-        <v>133645</v>
-      </c>
-      <c r="O17" t="n">
-        <v>12440</v>
-      </c>
-      <c r="P17" t="n">
-        <v>89077</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1127577</v>
-      </c>
-      <c r="R17" t="n">
-        <v>15415</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2299</v>
-      </c>
-      <c r="T17" t="n">
-        <v>19971</v>
-      </c>
-      <c r="U17" t="n">
-        <v>44545</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1101</v>
-      </c>
-      <c r="W17" t="n">
-        <v>18830</v>
-      </c>
-      <c r="X17" t="n">
-        <v>130838</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16637</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7323</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2775</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>941</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3464824</v>
-      </c>
-      <c r="C18" t="n">
-        <v>735533</v>
-      </c>
-      <c r="D18" t="n">
-        <v>304160</v>
-      </c>
-      <c r="E18" t="n">
-        <v>964644</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1338503</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1204981</v>
-      </c>
-      <c r="H18" t="n">
-        <v>631949</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1468295</v>
-      </c>
-      <c r="J18" t="n">
-        <v>133522</v>
-      </c>
-      <c r="K18" t="n">
-        <v>18395</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7682</v>
-      </c>
-      <c r="M18" t="n">
-        <v>650344</v>
-      </c>
-      <c r="N18" t="n">
-        <v>173049</v>
-      </c>
-      <c r="O18" t="n">
-        <v>17310</v>
-      </c>
-      <c r="P18" t="n">
-        <v>124155</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1475977</v>
-      </c>
-      <c r="R18" t="n">
-        <v>19313</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2522</v>
-      </c>
-      <c r="T18" t="n">
-        <v>25663</v>
-      </c>
-      <c r="U18" t="n">
-        <v>55076</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1663</v>
-      </c>
-      <c r="W18" t="n">
-        <v>21535</v>
-      </c>
-      <c r="X18" t="n">
-        <v>130699</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>17248</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>7013</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2823</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1147</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3697845</v>
-      </c>
-      <c r="C19" t="n">
-        <v>788194</v>
-      </c>
-      <c r="D19" t="n">
-        <v>315201</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1158372</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1381594</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1245709</v>
-      </c>
-      <c r="H19" t="n">
-        <v>610817</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1679807</v>
-      </c>
-      <c r="J19" t="n">
-        <v>135885</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17841</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7786</v>
-      </c>
-      <c r="M19" t="n">
-        <v>628658</v>
-      </c>
-      <c r="N19" t="n">
-        <v>179879</v>
-      </c>
-      <c r="O19" t="n">
-        <v>20825</v>
-      </c>
-      <c r="P19" t="n">
-        <v>135481</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1687593</v>
-      </c>
-      <c r="R19" t="n">
-        <v>22389</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2660</v>
-      </c>
-      <c r="T19" t="n">
-        <v>32648</v>
-      </c>
-      <c r="U19" t="n">
-        <v>53308</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1183</v>
-      </c>
-      <c r="W19" t="n">
-        <v>22089</v>
-      </c>
-      <c r="X19" t="n">
-        <v>132883</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>16899</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>7198</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3002</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>942</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4323112</v>
-      </c>
-      <c r="C20" t="n">
-        <v>896648</v>
-      </c>
-      <c r="D20" t="n">
-        <v>372217</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1476090</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1542002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1393815</v>
-      </c>
-      <c r="H20" t="n">
-        <v>689097</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2063860</v>
-      </c>
-      <c r="J20" t="n">
-        <v>148187</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19702</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8451</v>
-      </c>
-      <c r="M20" t="n">
-        <v>708799</v>
-      </c>
-      <c r="N20" t="n">
-        <v>226628</v>
-      </c>
-      <c r="O20" t="n">
-        <v>27507</v>
-      </c>
-      <c r="P20" t="n">
-        <v>153193</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2072311</v>
-      </c>
-      <c r="R20" t="n">
-        <v>20865</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2795</v>
-      </c>
-      <c r="T20" t="n">
-        <v>46056</v>
-      </c>
-      <c r="U20" t="n">
-        <v>57959</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1390</v>
-      </c>
-      <c r="W20" t="n">
-        <v>23676</v>
-      </c>
-      <c r="X20" t="n">
-        <v>145359</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>18682</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7909</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2828</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1020</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4380468</v>
-      </c>
-      <c r="C21" t="n">
-        <v>807813</v>
-      </c>
-      <c r="D21" t="n">
-        <v>366197</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1646655</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1400661</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1243568</v>
-      </c>
-      <c r="H21" t="n">
-        <v>691771</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2259765</v>
-      </c>
-      <c r="J21" t="n">
-        <v>157093</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19846</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8425</v>
-      </c>
-      <c r="M21" t="n">
-        <v>711617</v>
-      </c>
-      <c r="N21" t="n">
-        <v>244673</v>
-      </c>
-      <c r="O21" t="n">
-        <v>29349</v>
-      </c>
-      <c r="P21" t="n">
-        <v>156505</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2268190</v>
-      </c>
-      <c r="R21" t="n">
-        <v>20543</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3159</v>
-      </c>
-      <c r="T21" t="n">
-        <v>56671</v>
-      </c>
-      <c r="U21" t="n">
-        <v>63043</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1401</v>
-      </c>
-      <c r="W21" t="n">
-        <v>24621</v>
-      </c>
-      <c r="X21" t="n">
-        <v>154192</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>18756</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>7856</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2901</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1090</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5194154</v>
-      </c>
-      <c r="C22" t="n">
-        <v>898925</v>
-      </c>
-      <c r="D22" t="n">
-        <v>413128</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2133461</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1497159</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1344817</v>
-      </c>
-      <c r="H22" t="n">
-        <v>752339</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2918874</v>
-      </c>
-      <c r="J22" t="n">
-        <v>152342</v>
-      </c>
-      <c r="K22" t="n">
-        <v>18023</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7759</v>
-      </c>
-      <c r="M22" t="n">
-        <v>770362</v>
-      </c>
-      <c r="N22" t="n">
-        <v>226090</v>
-      </c>
-      <c r="O22" t="n">
-        <v>24144</v>
-      </c>
-      <c r="P22" t="n">
-        <v>169208</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2926633</v>
-      </c>
-      <c r="R22" t="n">
-        <v>19425</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2449</v>
-      </c>
-      <c r="T22" t="n">
-        <v>61503</v>
-      </c>
-      <c r="U22" t="n">
-        <v>69564</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1618</v>
-      </c>
-      <c r="W22" t="n">
-        <v>27789</v>
-      </c>
-      <c r="X22" t="n">
-        <v>149672</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>17059</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7280</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2670</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>964</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>479</v>
-      </c>
+        <v>155000</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
